--- a/audio/ja/方案四/美食店家/美食問題.xlsx
+++ b/audio/ja/方案四/美食店家/美食問題.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\Desktop\audio_demo_project\audio\ja\方案四\美食店家\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7782DC-98E4-478E-882F-74E8CE4A5EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFA8816-E57D-43C2-BAE7-B09CE9E07EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -885,12 +885,6 @@
     <t>阿美飯店の沙鍋鴨がおすすめです。約8.3公里です。</t>
   </si>
   <si>
-    <t>美味しい伝統的なカンミを味わえるお店はどこですか? 他におすすめはありますか?</t>
-  </si>
-  <si>
-    <t>台南老街巷弄裡的傳統小吃店，約500公尺，推薦：卓仔麵店以每日手工現作的麵條聞名，提供多款風味獨特的麵食，特別推薦其紅燒牛肉麵和榨菜麵，讓人回味無窮。</t>
-  </si>
-  <si>
     <t>タイナンにいるとき、どこでおいしい手作りデザートが食べられますか?</t>
   </si>
   <si>
@@ -903,15 +897,9 @@
     <t>タイナンへ旅行に行くのですか? いい麺や香酒な料理が食べられるおすすめのお店はありますか?</t>
   </si>
   <si>
-    <t>台南美食推薦</t>
-  </si>
-  <si>
     <t>すみません 新鮮な海鮮料理が食べられるレストランはどこにありますか?</t>
   </si>
   <si>
-    <t>三股海鮮麵、約15.0公里，推薦：('三股海鮮麵以新鮮的虱目魚為主要食材，提供獨特的海鮮麵和海鮮粥，深受當地食客喜愛。這家店的海鮮料理口味鮮美，讓人回味無窮，是三股地區的隱藏美食。')</t>
-  </si>
-  <si>
     <t>ソーザーを使った個性的なスイーツをスイーツが味わえるお店はお勧めしていただけますか?</t>
   </si>
   <si>
@@ -934,12 +922,6 @@
   </si>
   <si>
     <t>近くには南紡購物中心内に「たまこ」製品を販売している店舗がございます</t>
-  </si>
-  <si>
-    <t>すみません このまわりで上質なコーヒーが飲める場所はありますか?</t>
-  </si>
-  <si>
-    <t>寮國咖啡，約3.1公里，推薦：('寮國咖啡是一家隱身於台南巷弄的老屋咖啡店，環境懷舊悠閒，適合靜坐小憩。推薦的招牌咖啡、白蘭地咖啡及美式咖啡，皆以其獨特風味和高CP值受到顧客喜愛。')</t>
   </si>
   <si>
     <t>県地で米製品を主に扱うおすすめの特徴あるお店はありますか?</t>
@@ -991,12 +973,6 @@
     <t>このあたりで、ミイガオを専門とする昔ながらの小食店をいくつかおすすめしていただけますか?</t>
   </si>
   <si>
-    <t>タイナの旅行中です。家族での食事に向かう魚団子の店をおすすめしていただけますか?</t>
-  </si>
-  <si>
-    <t>黄家蝦捲，約1.0公里，推薦：黄家蝦捲是一家傳承五十年的經典台南小吃店，以其酥脆的蝦捲和清爽的魚丸脆肉湯而聞名。</t>
-  </si>
-  <si>
     <t>タイナンに来たのですか? 老い店の洋菓子店でケーキやパンを専門に扱っているお店を探しています おすすめはありますか?</t>
   </si>
   <si>
@@ -1070,12 +1046,6 @@
   </si>
   <si>
     <t>周辺には南紡ショッピングセンター内に電動車充電施設があり、また、地元の屋台料理を楽しめるスポットもございます</t>
-  </si>
-  <si>
-    <t>有名なエビご飯を食べてみたいのですか?タイナンでは他にどこで煮たような料理が食べられますか?</t>
-  </si>
-  <si>
-    <t>明新食品-歸仁店是一家歷史悠久的麵包專賣店，提供多樣化的產品，包括經典的台南古早味肉包和創新的虱目魚Q餅，讓顧客在品嚐中感受到幸福的滋味。店內環境乾淨明亮，服務親切，是喜愛烘焙食品的朋友不容錯過的好去處。</t>
   </si>
   <si>
     <t>なんで伝統的な肉巻きを食べてみたいのですか? 他に人気のお店をお勧めしていただけますか?</t>
@@ -1220,12 +1190,6 @@
     <t>台南には、特別な雰囲気で心地よいカフェがたくさんあります。</t>
   </si>
   <si>
-    <t>旅行中なのですか? ゆっくり靴解けて 独色あるドリンクが楽しめるカフェを探しています おすすめはありますか?</t>
-  </si>
-  <si>
-    <t>覓秘複合式咖啡廳 約31.0公里、窄門咖啡館 約1.8公里を推薦します。</t>
-  </si>
-  <si>
     <t>対南を旅行中なのですか?</t>
   </si>
   <si>
@@ -1274,12 +1238,6 @@
     <t>台南美術館は、多様なスタイルのお作品を展示する二館を有し、芸術愛好者にとって魅力的なスポットです</t>
   </si>
   <si>
-    <t>タイナンに行くのですが、地元ならでは米料理と伝統的なスープを食べたいです。おすすめのお店はありますか?</t>
-  </si>
-  <si>
-    <t>台南美術館</t>
-  </si>
-  <si>
     <t>どこでおいしいルーメンや伝統的なミンカオが食べられますか?</t>
   </si>
   <si>
@@ -1308,6 +1266,48 @@
   </si>
   <si>
     <t>阿地牛排館は、新鮮な肉と伝統的な牛排の風味で知られ、高品質な食事体験を提供します。</t>
+  </si>
+  <si>
+    <t>タイナンに行くのですか? 地元ならでは米料理と伝統的なスープを食べたいです。 おすすめのお店はありますか?</t>
+  </si>
+  <si>
+    <t>牛肉スープは200メートル近くで,美味しいスープを味わうことができます.</t>
+  </si>
+  <si>
+    <t>旅行中なのですか? ゆっくり靴どけて 独色あるドリンクが楽しめるカフェを探しています おすすめはありますか?</t>
+  </si>
+  <si>
+    <t>旅館から2.2km離れたカフェへ行ってみようと思います.</t>
+  </si>
+  <si>
+    <t>有名なエビご飯を食べてみたいのですか? タイナンでは他にどこで煮たような料理が食べられますか?</t>
+  </si>
+  <si>
+    <t>赤崁棺材板までは約3.8キロです。</t>
+  </si>
+  <si>
+    <t>アイランド 旅行中です。家族での食事に向かう魚タンゴの店をおすすめしていただけますか?</t>
+  </si>
+  <si>
+    <t>近くにある"明新食品2東寧店"は300メートルほどです.</t>
+  </si>
+  <si>
+    <t>すみません この周りで上質なコーヒーが飲める場所はありますか?</t>
+  </si>
+  <si>
+    <t>近くにある千山麦の鶏肉店で900メートル近くで,高品質のコーヒーを味わうことができます.</t>
+  </si>
+  <si>
+    <t>韓国では,カルーワのタイ音楽レストランを13.3kmほど離れたところに行きたいと思います.</t>
+  </si>
+  <si>
+    <t>投稿者: 投稿者</t>
+  </si>
+  <si>
+    <t>美味しい伝統的なカンミーを味わえるお店はどこですか? 他におすすめはありますか?</t>
+  </si>
+  <si>
+    <t>田市は,南市で,レストランがいくつかあり,食卓の台所で推薦を依頼できます.</t>
   </si>
 </sst>
 </file>
@@ -1350,9 +1350,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1635,8 +1636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96:C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2001,11 +2002,11 @@
       <c r="A26" t="s">
         <v>128</v>
       </c>
-      <c r="B26" t="s">
-        <v>251</v>
-      </c>
-      <c r="C26" t="s">
-        <v>252</v>
+      <c r="B26" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>390</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>28</v>
@@ -2016,10 +2017,10 @@
         <v>129</v>
       </c>
       <c r="B27" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C27" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>95</v>
@@ -2030,7 +2031,7 @@
         <v>130</v>
       </c>
       <c r="B28" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C28" t="s">
         <v>248</v>
@@ -2043,11 +2044,11 @@
       <c r="A29" t="s">
         <v>131</v>
       </c>
-      <c r="B29" t="s">
-        <v>256</v>
-      </c>
-      <c r="C29" t="s">
-        <v>257</v>
+      <c r="B29" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>387</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>97</v>
@@ -2057,11 +2058,11 @@
       <c r="A30" t="s">
         <v>132</v>
       </c>
-      <c r="B30" t="s">
-        <v>258</v>
-      </c>
-      <c r="C30" t="s">
-        <v>259</v>
+      <c r="B30" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>388</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>98</v>
@@ -2072,10 +2073,10 @@
         <v>133</v>
       </c>
       <c r="B31" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C31" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>99</v>
@@ -2086,10 +2087,10 @@
         <v>134</v>
       </c>
       <c r="B32" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C32" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>100</v>
@@ -2100,10 +2101,10 @@
         <v>135</v>
       </c>
       <c r="B33" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C33" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>101</v>
@@ -2114,10 +2115,10 @@
         <v>136</v>
       </c>
       <c r="B34" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C34" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>102</v>
@@ -2127,11 +2128,11 @@
       <c r="A35" t="s">
         <v>137</v>
       </c>
-      <c r="B35" t="s">
-        <v>268</v>
-      </c>
-      <c r="C35" t="s">
-        <v>269</v>
+      <c r="B35" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>386</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>103</v>
@@ -2142,10 +2143,10 @@
         <v>138</v>
       </c>
       <c r="B36" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C36" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>94</v>
@@ -2156,7 +2157,7 @@
         <v>139</v>
       </c>
       <c r="B37" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C37" t="s">
         <v>248</v>
@@ -2170,10 +2171,10 @@
         <v>140</v>
       </c>
       <c r="B38" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C38" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>92</v>
@@ -2184,7 +2185,7 @@
         <v>141</v>
       </c>
       <c r="B39" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C39" t="s">
         <v>227</v>
@@ -2198,10 +2199,10 @@
         <v>142</v>
       </c>
       <c r="B40" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C40" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>90</v>
@@ -2212,10 +2213,10 @@
         <v>143</v>
       </c>
       <c r="B41" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C41" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>89</v>
@@ -2226,10 +2227,10 @@
         <v>144</v>
       </c>
       <c r="B42" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C42" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>88</v>
@@ -2240,7 +2241,7 @@
         <v>145</v>
       </c>
       <c r="B43" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C43" t="s">
         <v>248</v>
@@ -2254,10 +2255,10 @@
         <v>146</v>
       </c>
       <c r="B44" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C44" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>86</v>
@@ -2268,10 +2269,10 @@
         <v>147</v>
       </c>
       <c r="B45" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C45" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>85</v>
@@ -2281,11 +2282,11 @@
       <c r="A46" t="s">
         <v>148</v>
       </c>
-      <c r="B46" t="s">
-        <v>286</v>
-      </c>
-      <c r="C46" t="s">
-        <v>287</v>
+      <c r="B46" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>384</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>84</v>
@@ -2296,10 +2297,10 @@
         <v>149</v>
       </c>
       <c r="B47" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C47" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>83</v>
@@ -2310,10 +2311,10 @@
         <v>150</v>
       </c>
       <c r="B48" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C48" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>82</v>
@@ -2324,10 +2325,10 @@
         <v>151</v>
       </c>
       <c r="B49" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C49" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>81</v>
@@ -2338,10 +2339,10 @@
         <v>152</v>
       </c>
       <c r="B50" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C50" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>80</v>
@@ -2352,10 +2353,10 @@
         <v>153</v>
       </c>
       <c r="B51" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="C51" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>79</v>
@@ -2366,10 +2367,10 @@
         <v>154</v>
       </c>
       <c r="B52" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="C52" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>78</v>
@@ -2380,7 +2381,7 @@
         <v>155</v>
       </c>
       <c r="B53" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C53" t="s">
         <v>248</v>
@@ -2394,10 +2395,10 @@
         <v>156</v>
       </c>
       <c r="B54" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C54" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>76</v>
@@ -2408,10 +2409,10 @@
         <v>157</v>
       </c>
       <c r="B55" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="C55" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>75</v>
@@ -2422,10 +2423,10 @@
         <v>158</v>
       </c>
       <c r="B56" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="C56" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>74</v>
@@ -2436,10 +2437,10 @@
         <v>159</v>
       </c>
       <c r="B57" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="C57" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>73</v>
@@ -2450,10 +2451,10 @@
         <v>160</v>
       </c>
       <c r="B58" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="C58" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>72</v>
@@ -2464,10 +2465,10 @@
         <v>161</v>
       </c>
       <c r="B59" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="C59" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>71</v>
@@ -2477,11 +2478,11 @@
       <c r="A60" t="s">
         <v>162</v>
       </c>
-      <c r="B60" t="s">
-        <v>313</v>
-      </c>
-      <c r="C60" t="s">
-        <v>314</v>
+      <c r="B60" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>382</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>70</v>
@@ -2492,10 +2493,10 @@
         <v>163</v>
       </c>
       <c r="B61" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="C61" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>69</v>
@@ -2506,7 +2507,7 @@
         <v>164</v>
       </c>
       <c r="B62" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="C62" t="s">
         <v>227</v>
@@ -2520,10 +2521,10 @@
         <v>165</v>
       </c>
       <c r="B63" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="C63" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>67</v>
@@ -2534,10 +2535,10 @@
         <v>166</v>
       </c>
       <c r="B64" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="C64" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>66</v>
@@ -2548,10 +2549,10 @@
         <v>167</v>
       </c>
       <c r="B65" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C65" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>65</v>
@@ -2562,10 +2563,10 @@
         <v>168</v>
       </c>
       <c r="B66" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="C66" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>64</v>
@@ -2576,10 +2577,10 @@
         <v>169</v>
       </c>
       <c r="B67" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="C67" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>63</v>
@@ -2590,10 +2591,10 @@
         <v>170</v>
       </c>
       <c r="B68" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="C68" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>62</v>
@@ -2604,10 +2605,10 @@
         <v>171</v>
       </c>
       <c r="B69" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="C69" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>61</v>
@@ -2618,10 +2619,10 @@
         <v>172</v>
       </c>
       <c r="B70" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="C70" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>60</v>
@@ -2632,10 +2633,10 @@
         <v>173</v>
       </c>
       <c r="B71" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="C71" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>59</v>
@@ -2646,7 +2647,7 @@
         <v>174</v>
       </c>
       <c r="B72" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="C72" t="s">
         <v>227</v>
@@ -2660,10 +2661,10 @@
         <v>175</v>
       </c>
       <c r="B73" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="C73" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>57</v>
@@ -2674,10 +2675,10 @@
         <v>176</v>
       </c>
       <c r="B74" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="C74" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>56</v>
@@ -2688,10 +2689,10 @@
         <v>177</v>
       </c>
       <c r="B75" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="C75" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>55</v>
@@ -2702,10 +2703,10 @@
         <v>178</v>
       </c>
       <c r="B76" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="C76" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>54</v>
@@ -2716,10 +2717,10 @@
         <v>179</v>
       </c>
       <c r="B77" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="C77" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>53</v>
@@ -2730,10 +2731,10 @@
         <v>180</v>
       </c>
       <c r="B78" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="C78" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>52</v>
@@ -2744,10 +2745,10 @@
         <v>181</v>
       </c>
       <c r="B79" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="C79" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>51</v>
@@ -2758,7 +2759,7 @@
         <v>182</v>
       </c>
       <c r="B80" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="C80" t="s">
         <v>248</v>
@@ -2772,10 +2773,10 @@
         <v>183</v>
       </c>
       <c r="B81" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="C81" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>49</v>
@@ -2786,10 +2787,10 @@
         <v>184</v>
       </c>
       <c r="B82" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="C82" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>48</v>
@@ -2800,10 +2801,10 @@
         <v>185</v>
       </c>
       <c r="B83" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="C83" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>47</v>
@@ -2814,10 +2815,10 @@
         <v>186</v>
       </c>
       <c r="B84" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="C84" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>46</v>
@@ -2828,10 +2829,10 @@
         <v>187</v>
       </c>
       <c r="B85" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="C85" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>45</v>
@@ -2841,11 +2842,11 @@
       <c r="A86" t="s">
         <v>188</v>
       </c>
-      <c r="B86" t="s">
-        <v>361</v>
-      </c>
-      <c r="C86" t="s">
-        <v>362</v>
+      <c r="B86" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>380</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>44</v>
@@ -2856,10 +2857,10 @@
         <v>189</v>
       </c>
       <c r="B87" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="C87" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>43</v>
@@ -2870,10 +2871,10 @@
         <v>190</v>
       </c>
       <c r="B88" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="C88" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>42</v>
@@ -2884,10 +2885,10 @@
         <v>191</v>
       </c>
       <c r="B89" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="C89" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>41</v>
@@ -2898,7 +2899,7 @@
         <v>192</v>
       </c>
       <c r="B90" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C90" t="s">
         <v>227</v>
@@ -2912,10 +2913,10 @@
         <v>193</v>
       </c>
       <c r="B91" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="C91" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>39</v>
@@ -2926,10 +2927,10 @@
         <v>194</v>
       </c>
       <c r="B92" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="C92" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>38</v>
@@ -2940,10 +2941,10 @@
         <v>195</v>
       </c>
       <c r="B93" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="C93" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>37</v>
@@ -2954,10 +2955,10 @@
         <v>196</v>
       </c>
       <c r="B94" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="C94" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>36</v>
@@ -2968,10 +2969,10 @@
         <v>197</v>
       </c>
       <c r="B95" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="C95" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>35</v>
@@ -2981,11 +2982,11 @@
       <c r="A96" t="s">
         <v>198</v>
       </c>
-      <c r="B96" t="s">
-        <v>379</v>
-      </c>
-      <c r="C96" t="s">
-        <v>380</v>
+      <c r="B96" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>378</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>34</v>
@@ -2996,10 +2997,10 @@
         <v>199</v>
       </c>
       <c r="B97" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="C97" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>33</v>
@@ -3010,10 +3011,10 @@
         <v>200</v>
       </c>
       <c r="B98" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="C98" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>32</v>
@@ -3024,10 +3025,10 @@
         <v>201</v>
       </c>
       <c r="B99" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="C99" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>31</v>
@@ -3038,10 +3039,10 @@
         <v>202</v>
       </c>
       <c r="B100" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="C100" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>30</v>
@@ -3052,10 +3053,10 @@
         <v>203</v>
       </c>
       <c r="B101" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="C101" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>29</v>
